--- a/script-results.xlsx
+++ b/script-results.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="111">
   <si>
     <t>Name</t>
   </si>
@@ -35,6 +35,9 @@
     <t>U17 English National Championships 2023</t>
   </si>
   <si>
+    <t>Dorset Senior Gold 2024</t>
+  </si>
+  <si>
     <t>Nottinghamshire Senior Gold 2024</t>
   </si>
   <si>
@@ -327,6 +330,18 @@
   </si>
   <si>
     <t>1-1</t>
+  </si>
+  <si>
+    <t>1-2</t>
+  </si>
+  <si>
+    <t>2-1</t>
+  </si>
+  <si>
+    <t>0-4</t>
+  </si>
+  <si>
+    <t>4-0</t>
   </si>
   <si>
     <t>0-3</t>
@@ -690,18 +705,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H71"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -726,169 +741,190 @@
       <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>1311945</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>1255662</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>1268282</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>1309842</v>
       </c>
       <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>1284382</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>1281105</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -913,195 +949,219 @@
       <c r="H11" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12">
         <v>1317894</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
         <v>17</v>
       </c>
-      <c r="E12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" t="s">
-        <v>15</v>
-      </c>
       <c r="H12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13">
         <v>1308656</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14">
         <v>1359243</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15">
         <v>1323320</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s">
         <v>15</v>
       </c>
-      <c r="E15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" t="s">
-        <v>14</v>
-      </c>
       <c r="G15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16">
         <v>1247210</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>1299917</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18">
         <v>1321479</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -1126,377 +1186,422 @@
       <c r="H21" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>1316734</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>1260776</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B24">
         <v>1248118</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B25">
         <v>1302102</v>
       </c>
       <c r="C25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B26">
         <v>1283214</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B27">
         <v>1319900</v>
       </c>
       <c r="C27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B28">
         <v>1284382</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H28" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B29">
         <v>1307845</v>
       </c>
       <c r="C29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H29" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B30">
         <v>1269456</v>
       </c>
       <c r="C30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H30" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B31">
         <v>1311485</v>
       </c>
       <c r="C31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H31" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B32">
         <v>1281105</v>
       </c>
       <c r="C32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E32" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H32" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
         <v>1309299</v>
       </c>
       <c r="C33" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D33" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F33" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G33" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H33" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B34">
         <v>1309842</v>
       </c>
       <c r="C34" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D34" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E34" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G34" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H34" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>1359001</v>
       </c>
       <c r="C35" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F35" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G35" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H35" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
         <v>0</v>
       </c>
@@ -1521,325 +1626,364 @@
       <c r="H38" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="I38" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B39">
         <v>1286589</v>
       </c>
       <c r="C39" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D39" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E39" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F39" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G39" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H39" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B40">
         <v>1254091</v>
       </c>
       <c r="C40" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D40" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E40" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F40" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G40" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H40" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B41">
         <v>1309991</v>
       </c>
       <c r="C41" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D41" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E41" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F41" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G41" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="H41" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B42">
         <v>1247210</v>
       </c>
       <c r="C42" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D42" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E42" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F42" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G42" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H42" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B43">
         <v>1270523</v>
       </c>
       <c r="C43" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D43" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H43" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B44">
         <v>1312773</v>
       </c>
       <c r="C44" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D44" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E44" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F44" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G44" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H44" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I44" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B45">
         <v>1308656</v>
       </c>
       <c r="C45" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F45" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G45" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H45" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I45" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B46">
         <v>1293518</v>
       </c>
       <c r="C46" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D46" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E46" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F46" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G46" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H46" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B47">
         <v>1323320</v>
       </c>
       <c r="C47" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D47" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E47" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F47" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G47" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H47" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I47" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B48">
         <v>1274309</v>
       </c>
       <c r="C48" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D48" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E48" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F48" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G48" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H48" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I48" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B49">
         <v>1325825</v>
       </c>
       <c r="C49" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D49" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E49" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F49" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G49" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H49" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B50">
         <v>1322371</v>
       </c>
       <c r="C50" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D50" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E50" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F50" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G50" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H50" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I50" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
         <v>0</v>
       </c>
@@ -1864,221 +2008,248 @@
       <c r="H53" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="54" spans="1:8">
+      <c r="I53" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B54">
         <v>1311945</v>
       </c>
       <c r="C54" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D54" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E54" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F54" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G54" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H54" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I54" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B55">
         <v>1248118</v>
       </c>
       <c r="C55" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D55" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E55" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F55" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G55" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H55" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I55" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B56">
         <v>1302102</v>
       </c>
       <c r="C56" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D56" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E56" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F56" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G56" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H56" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I56" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B57">
         <v>1316734</v>
       </c>
       <c r="C57" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D57" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E57" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F57" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G57" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H57" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I57" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B58">
         <v>1283214</v>
       </c>
       <c r="C58" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D58" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E58" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F58" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G58" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H58" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I58" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B59">
         <v>1260776</v>
       </c>
       <c r="C59" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D59" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E59" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F59" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G59" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H59" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I59" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B60">
         <v>1315635</v>
       </c>
       <c r="C60" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D60" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E60" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F60" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G60" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H60" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I60" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B61">
         <v>1359001</v>
       </c>
       <c r="C61" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D61" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E61" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F61" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G61" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H61" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I61" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
         <v>0</v>
       </c>
@@ -2103,187 +2274,211 @@
       <c r="H64" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="65" spans="1:8">
+      <c r="I64" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B65">
         <v>1286589</v>
       </c>
       <c r="C65" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D65" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E65" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F65" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G65" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H65" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I65" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B66">
         <v>1309991</v>
       </c>
       <c r="C66" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D66" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E66" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F66" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G66" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="H66" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I66" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B67">
         <v>1270523</v>
       </c>
       <c r="C67" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D67" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E67" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F67" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G67" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H67" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I67" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B68">
         <v>1254091</v>
       </c>
       <c r="C68" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D68" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E68" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F68" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G68" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H68" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I68" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B69">
         <v>1359243</v>
       </c>
       <c r="C69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D69" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E69" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F69" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G69" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H69" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I69" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B70">
         <v>1293518</v>
       </c>
       <c r="C70" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D70" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E70" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F70" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G70" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H70" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I70" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B71">
         <v>1274309</v>
       </c>
       <c r="C71" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D71" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E71" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F71" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G71" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H71" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="I71" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2301,2108 +2496,2108 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G12" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="H12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G13" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H13" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H14" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G15" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H15" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C17" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="D17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E17" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H17" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C18" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D18" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E18" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G18" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="O21" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C22" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D22" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E22" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F22" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G22" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H22" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I22" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J22" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K22" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L22" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M22" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N22" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O22" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C23" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D23" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E23" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F23" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G23" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H23" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I23" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J23" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K23" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L23" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M23" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N23" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O23" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C24" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D24" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E24" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F24" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G24" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H24" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I24" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J24" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K24" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L24" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M24" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N24" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O24" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C25" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D25" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E25" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F25" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G25" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H25" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I25" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J25" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K25" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L25" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M25" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N25" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O25" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C26" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D26" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E26" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F26" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G26" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H26" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I26" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K26" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L26" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C27" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D27" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E27" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F27" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G27" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H27" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="I27" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="J27" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K27" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L27" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M27" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N27" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O27" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B28" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C28" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G28" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="H28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J28" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O28" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C29" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D29" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E29" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F29" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G29" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H29" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I29" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J29" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K29" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L29" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M29" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N29" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O29" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C30" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D30" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E30" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F30" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G30" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H30" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I30" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J30" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K30" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L30" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M30" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N30" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O30" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C31" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D31" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E31" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F31" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G31" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H31" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I31" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J31" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K31" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L31" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M31" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N31" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O31" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B32" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C32" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D32" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E32" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F32" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G32" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H32" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I32" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J32" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K32" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L32" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M32" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N32" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O32" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C33" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E33" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F33" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G33" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H33" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I33" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J33" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K33" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L33" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M33" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N33" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O33" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B34" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C34" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D34" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E34" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F34" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G34" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H34" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I34" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J34" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K34" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L34" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M34" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N34" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O34" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C35" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D35" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E35" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F35" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G35" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H35" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I35" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J35" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K35" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L35" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M35" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N35" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O35" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J38" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="K38" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B39" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C39" t="s">
+        <v>102</v>
+      </c>
+      <c r="D39" t="s">
+        <v>104</v>
+      </c>
+      <c r="E39" t="s">
         <v>101</v>
       </c>
-      <c r="D39" t="s">
-        <v>103</v>
-      </c>
-      <c r="E39" t="s">
-        <v>100</v>
-      </c>
       <c r="F39" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G39" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H39" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="I39" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J39" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K39" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L39" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M39" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B40" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C40" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D40" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E40" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F40" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G40" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H40" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I40" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J40" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K40" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L40" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M40" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B41" t="s">
+        <v>104</v>
+      </c>
+      <c r="C41" t="s">
+        <v>102</v>
+      </c>
+      <c r="D41" t="s">
+        <v>99</v>
+      </c>
+      <c r="E41" t="s">
+        <v>100</v>
+      </c>
+      <c r="F41" t="s">
+        <v>102</v>
+      </c>
+      <c r="G41" t="s">
+        <v>99</v>
+      </c>
+      <c r="H41" t="s">
+        <v>99</v>
+      </c>
+      <c r="I41" t="s">
+        <v>100</v>
+      </c>
+      <c r="J41" t="s">
+        <v>99</v>
+      </c>
+      <c r="K41" t="s">
         <v>103</v>
       </c>
-      <c r="C41" t="s">
-        <v>101</v>
-      </c>
-      <c r="D41" t="s">
-        <v>98</v>
-      </c>
-      <c r="E41" t="s">
-        <v>99</v>
-      </c>
-      <c r="F41" t="s">
-        <v>101</v>
-      </c>
-      <c r="G41" t="s">
-        <v>98</v>
-      </c>
-      <c r="H41" t="s">
-        <v>98</v>
-      </c>
-      <c r="I41" t="s">
-        <v>99</v>
-      </c>
-      <c r="J41" t="s">
-        <v>98</v>
-      </c>
-      <c r="K41" t="s">
-        <v>102</v>
-      </c>
       <c r="L41" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M41" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B42" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C42" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D42" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E42" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F42" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G42" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H42" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I42" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J42" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K42" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L42" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M42" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B43" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C43" t="s">
+        <v>102</v>
+      </c>
+      <c r="D43" t="s">
+        <v>100</v>
+      </c>
+      <c r="E43" t="s">
         <v>101</v>
       </c>
-      <c r="D43" t="s">
-        <v>99</v>
-      </c>
-      <c r="E43" t="s">
-        <v>100</v>
-      </c>
       <c r="F43" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G43" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H43" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I43" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J43" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K43" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L43" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M43" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:15">
       <c r="A44" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B44" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C44" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D44" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E44" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F44" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G44" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H44" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I44" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J44" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K44" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="L44" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="M44" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:15">
       <c r="A45" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B45" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C45" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D45" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E45" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F45" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G45" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H45" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I45" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="J45" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K45" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L45" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M45" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46" spans="1:15">
       <c r="A46" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B46" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C46" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D46" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E46" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F46" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G46" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H46" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="I46" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J46" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K46" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L46" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M46" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:15">
       <c r="A47" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B47" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C47" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D47" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E47" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F47" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G47" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H47" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I47" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J47" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K47" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="L47" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="M47" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48" spans="1:15">
       <c r="A48" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B48" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C48" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D48" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E48" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F48" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G48" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="H48" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="I48" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J48" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K48" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L48" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M48" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B49" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C49" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D49" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E49" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F49" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G49" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="H49" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="I49" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J49" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K49" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L49" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M49" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B50" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C50" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D50" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E50" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F50" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G50" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H50" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I50" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J50" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K50" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L50" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M50" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G53" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="H53" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B54" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C54" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D54" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E54" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F54" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G54" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H54" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I54" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B55" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C55" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D55" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E55" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F55" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G55" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H55" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I55" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B56" t="s">
+        <v>102</v>
+      </c>
+      <c r="C56" t="s">
+        <v>99</v>
+      </c>
+      <c r="D56" t="s">
+        <v>99</v>
+      </c>
+      <c r="E56" t="s">
+        <v>100</v>
+      </c>
+      <c r="F56" t="s">
+        <v>99</v>
+      </c>
+      <c r="G56" t="s">
         <v>101</v>
       </c>
-      <c r="C56" t="s">
-        <v>98</v>
-      </c>
-      <c r="D56" t="s">
-        <v>98</v>
-      </c>
-      <c r="E56" t="s">
-        <v>99</v>
-      </c>
-      <c r="F56" t="s">
-        <v>98</v>
-      </c>
-      <c r="G56" t="s">
-        <v>99</v>
-      </c>
       <c r="H56" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I56" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B57" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C57" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D57" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E57" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F57" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G57" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H57" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I57" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B58" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C58" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D58" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E58" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F58" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G58" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H58" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I58" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B59" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C59" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D59" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E59" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F59" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G59" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H59" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I59" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B60" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C60" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D60" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E60" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F60" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G60" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H60" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I60" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B61" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C61" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D61" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E61" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F61" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G61" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H61" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I61" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C64" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E64" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="F64" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B65" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C65" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D65" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E65" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F65" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G65" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H65" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B66" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C66" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D66" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E66" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F66" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G66" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H66" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B67" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C67" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D67" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E67" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F67" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G67" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H67" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B68" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C68" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D68" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E68" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F68" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G68" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H68" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B69" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C69" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D69" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E69" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F69" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G69" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H69" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B70" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C70" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D70" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E70" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F70" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G70" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H70" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B71" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C71" t="s">
+        <v>102</v>
+      </c>
+      <c r="D71" t="s">
+        <v>99</v>
+      </c>
+      <c r="E71" t="s">
+        <v>99</v>
+      </c>
+      <c r="F71" t="s">
         <v>101</v>
       </c>
-      <c r="D71" t="s">
-        <v>98</v>
-      </c>
-      <c r="E71" t="s">
-        <v>98</v>
-      </c>
-      <c r="F71" t="s">
-        <v>99</v>
-      </c>
       <c r="G71" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H71" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
